--- a/output/病历症状表（规范化）.xlsx
+++ b/output/病历症状表（规范化）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13560"/>
+    <workbookView windowWidth="27080" windowHeight="13460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,18 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>INHOSPTIAL_ID</t>
-  </si>
-  <si>
-    <t>身目尿黄</t>
   </si>
   <si>
     <t>腹胀</t>
   </si>
   <si>
     <t>发热</t>
+  </si>
+  <si>
+    <t>尿黄</t>
   </si>
   <si>
     <t>纳差</t>
@@ -148,9 +148,6 @@
     <t>定向力迟钝</t>
   </si>
   <si>
-    <t>计算力</t>
-  </si>
-  <si>
     <t>吐字不清</t>
   </si>
   <si>
@@ -228,10 +225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;HK$&quot;* #,##0_);_(&quot;HK$&quot;* \(#,##0\);_(&quot;HK$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_(&quot;HK$&quot;* #,##0.00_);_(&quot;HK$&quot;* \(#,##0.00\);_(&quot;HK$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;HK$&quot;* #,##0_);_(&quot;HK$&quot;* \(#,##0\);_(&quot;HK$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -257,11 +254,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,16 +269,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -294,10 +306,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,35 +324,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -347,7 +353,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -363,39 +368,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,7 +413,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,13 +443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,7 +467,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,121 +581,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,15 +616,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -643,6 +631,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -654,35 +657,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,151 +693,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1215,15 +1212,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:BQ250"/>
+  <dimension ref="A1:BP250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.8"/>
   <sheetData>
-    <row r="1" spans="1:69">
+    <row r="1" spans="1:68">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1428,11 +1425,8 @@
       <c r="BP1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="1" t="s">
-        <v>68</v>
-      </c>
     </row>
-    <row r="2" spans="1:69">
+    <row r="2" spans="1:68">
       <c r="A2" s="1">
         <v>1024</v>
       </c>
@@ -1440,10 +1434,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1637,22 +1631,19 @@
       <c r="BP2">
         <v>0</v>
       </c>
-      <c r="BQ2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:69">
+    <row r="3" spans="1:68">
       <c r="A3" s="1">
         <v>2560</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1829,10 +1820,10 @@
         <v>0</v>
       </c>
       <c r="BK3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM3">
         <v>0</v>
@@ -1846,11 +1837,8 @@
       <c r="BP3">
         <v>0</v>
       </c>
-      <c r="BQ3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:69">
+    <row r="4" spans="1:68">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1858,10 +1846,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2055,19 +2043,16 @@
       <c r="BP4">
         <v>0</v>
       </c>
-      <c r="BQ4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:69">
+    <row r="5" spans="1:68">
       <c r="A5" s="1">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2264,11 +2249,8 @@
       <c r="BP5">
         <v>0</v>
       </c>
-      <c r="BQ5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:69">
+    <row r="6" spans="1:68">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -2473,11 +2455,8 @@
       <c r="BP6">
         <v>0</v>
       </c>
-      <c r="BQ6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:69">
+    <row r="7" spans="1:68">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -2485,10 +2464,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2682,11 +2661,8 @@
       <c r="BP7">
         <v>0</v>
       </c>
-      <c r="BQ7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:69">
+    <row r="8" spans="1:68">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -2694,10 +2670,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2891,11 +2867,8 @@
       <c r="BP8">
         <v>0</v>
       </c>
-      <c r="BQ8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:69">
+    <row r="9" spans="1:68">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -3100,11 +3073,8 @@
       <c r="BP9">
         <v>0</v>
       </c>
-      <c r="BQ9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:69">
+    <row r="10" spans="1:68">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -3115,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -3309,11 +3279,8 @@
       <c r="BP10">
         <v>0</v>
       </c>
-      <c r="BQ10">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:69">
+    <row r="11" spans="1:68">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -3321,10 +3288,10 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3518,11 +3485,8 @@
       <c r="BP11">
         <v>0</v>
       </c>
-      <c r="BQ11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:69">
+    <row r="12" spans="1:68">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -3530,10 +3494,10 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3727,19 +3691,16 @@
       <c r="BP12">
         <v>0</v>
       </c>
-      <c r="BQ12">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:69">
+    <row r="13" spans="1:68">
       <c r="A13" s="1">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -3936,22 +3897,19 @@
       <c r="BP13">
         <v>0</v>
       </c>
-      <c r="BQ13">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:69">
+    <row r="14" spans="1:68">
       <c r="A14" s="1">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4145,11 +4103,8 @@
       <c r="BP14">
         <v>0</v>
       </c>
-      <c r="BQ14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:69">
+    <row r="15" spans="1:68">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -4157,10 +4112,10 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -4354,11 +4309,8 @@
       <c r="BP15">
         <v>0</v>
       </c>
-      <c r="BQ15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:69">
+    <row r="16" spans="1:68">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -4366,10 +4318,10 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -4563,19 +4515,16 @@
       <c r="BP16">
         <v>0</v>
       </c>
-      <c r="BQ16">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:69">
+    <row r="17" spans="1:68">
       <c r="A17" s="1">
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -4772,22 +4721,19 @@
       <c r="BP17">
         <v>0</v>
       </c>
-      <c r="BQ17">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:69">
+    <row r="18" spans="1:68">
       <c r="A18" s="1">
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -4981,11 +4927,8 @@
       <c r="BP18">
         <v>0</v>
       </c>
-      <c r="BQ18">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:69">
+    <row r="19" spans="1:68">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -4993,10 +4936,10 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -5190,11 +5133,8 @@
       <c r="BP19">
         <v>0</v>
       </c>
-      <c r="BQ19">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:69">
+    <row r="20" spans="1:68">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -5202,10 +5142,10 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -5399,22 +5339,19 @@
       <c r="BP20">
         <v>0</v>
       </c>
-      <c r="BQ20">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:69">
+    <row r="21" spans="1:68">
       <c r="A21" s="1">
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -5608,11 +5545,8 @@
       <c r="BP21">
         <v>0</v>
       </c>
-      <c r="BQ21">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:69">
+    <row r="22" spans="1:68">
       <c r="A22" s="1">
         <v>529</v>
       </c>
@@ -5817,11 +5751,8 @@
       <c r="BP22">
         <v>0</v>
       </c>
-      <c r="BQ22">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:69">
+    <row r="23" spans="1:68">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -5829,10 +5760,10 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -6026,19 +5957,16 @@
       <c r="BP23">
         <v>0</v>
       </c>
-      <c r="BQ23">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:69">
+    <row r="24" spans="1:68">
       <c r="A24" s="1">
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -6235,11 +6163,8 @@
       <c r="BP24">
         <v>0</v>
       </c>
-      <c r="BQ24">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:69">
+    <row r="25" spans="1:68">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -6247,10 +6172,10 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -6444,16 +6369,13 @@
       <c r="BP25">
         <v>0</v>
       </c>
-      <c r="BQ25">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:69">
+    <row r="26" spans="1:68">
       <c r="A26" s="1">
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -6653,22 +6575,19 @@
       <c r="BP26">
         <v>0</v>
       </c>
-      <c r="BQ26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:69">
+    <row r="27" spans="1:68">
       <c r="A27" s="1">
         <v>27</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -6862,22 +6781,19 @@
       <c r="BP27">
         <v>0</v>
       </c>
-      <c r="BQ27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:69">
+    <row r="28" spans="1:68">
       <c r="A28" s="1">
         <v>28</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -7071,11 +6987,8 @@
       <c r="BP28">
         <v>0</v>
       </c>
-      <c r="BQ28">
-        <v>0</v>
-      </c>
     </row>
-    <row r="29" spans="1:69">
+    <row r="29" spans="1:68">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -7083,10 +6996,10 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -7280,16 +7193,13 @@
       <c r="BP29">
         <v>0</v>
       </c>
-      <c r="BQ29">
-        <v>0</v>
-      </c>
     </row>
-    <row r="30" spans="1:69">
+    <row r="30" spans="1:68">
       <c r="A30" s="1">
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -7489,22 +7399,19 @@
       <c r="BP30">
         <v>0</v>
       </c>
-      <c r="BQ30">
-        <v>0</v>
-      </c>
     </row>
-    <row r="31" spans="1:69">
+    <row r="31" spans="1:68">
       <c r="A31" s="1">
         <v>31</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -7698,11 +7605,8 @@
       <c r="BP31">
         <v>0</v>
       </c>
-      <c r="BQ31">
-        <v>0</v>
-      </c>
     </row>
-    <row r="32" spans="1:69">
+    <row r="32" spans="1:68">
       <c r="A32" s="1">
         <v>542</v>
       </c>
@@ -7710,10 +7614,10 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -7907,22 +7811,19 @@
       <c r="BP32">
         <v>0</v>
       </c>
-      <c r="BQ32">
-        <v>0</v>
-      </c>
     </row>
-    <row r="33" spans="1:69">
+    <row r="33" spans="1:68">
       <c r="A33" s="1">
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -8116,22 +8017,19 @@
       <c r="BP33">
         <v>0</v>
       </c>
-      <c r="BQ33">
-        <v>0</v>
-      </c>
     </row>
-    <row r="34" spans="1:69">
+    <row r="34" spans="1:68">
       <c r="A34" s="1">
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -8325,19 +8223,16 @@
       <c r="BP34">
         <v>0</v>
       </c>
-      <c r="BQ34">
-        <v>0</v>
-      </c>
     </row>
-    <row r="35" spans="1:69">
+    <row r="35" spans="1:68">
       <c r="A35" s="1">
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -8534,11 +8429,8 @@
       <c r="BP35">
         <v>0</v>
       </c>
-      <c r="BQ35">
-        <v>0</v>
-      </c>
     </row>
-    <row r="36" spans="1:69">
+    <row r="36" spans="1:68">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -8546,10 +8438,10 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -8743,11 +8635,8 @@
       <c r="BP36">
         <v>0</v>
       </c>
-      <c r="BQ36">
-        <v>0</v>
-      </c>
     </row>
-    <row r="37" spans="1:69">
+    <row r="37" spans="1:68">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -8755,10 +8644,10 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -8952,11 +8841,8 @@
       <c r="BP37">
         <v>0</v>
       </c>
-      <c r="BQ37">
-        <v>0</v>
-      </c>
     </row>
-    <row r="38" spans="1:69">
+    <row r="38" spans="1:68">
       <c r="A38" s="1">
         <v>1054</v>
       </c>
@@ -8964,10 +8850,10 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -9161,22 +9047,19 @@
       <c r="BP38">
         <v>0</v>
       </c>
-      <c r="BQ38">
-        <v>0</v>
-      </c>
     </row>
-    <row r="39" spans="1:69">
+    <row r="39" spans="1:68">
       <c r="A39" s="1">
         <v>39</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -9370,19 +9253,16 @@
       <c r="BP39">
         <v>0</v>
       </c>
-      <c r="BQ39">
-        <v>0</v>
-      </c>
     </row>
-    <row r="40" spans="1:69">
+    <row r="40" spans="1:68">
       <c r="A40" s="1">
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -9579,11 +9459,8 @@
       <c r="BP40">
         <v>0</v>
       </c>
-      <c r="BQ40">
-        <v>0</v>
-      </c>
     </row>
-    <row r="41" spans="1:69">
+    <row r="41" spans="1:68">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -9591,10 +9468,10 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -9788,22 +9665,19 @@
       <c r="BP41">
         <v>0</v>
       </c>
-      <c r="BQ41">
-        <v>0</v>
-      </c>
     </row>
-    <row r="42" spans="1:69">
+    <row r="42" spans="1:68">
       <c r="A42" s="1">
         <v>42</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -9997,22 +9871,19 @@
       <c r="BP42">
         <v>0</v>
       </c>
-      <c r="BQ42">
-        <v>0</v>
-      </c>
     </row>
-    <row r="43" spans="1:69">
+    <row r="43" spans="1:68">
       <c r="A43" s="1">
         <v>43</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -10206,11 +10077,8 @@
       <c r="BP43">
         <v>0</v>
       </c>
-      <c r="BQ43">
-        <v>0</v>
-      </c>
     </row>
-    <row r="44" spans="1:69">
+    <row r="44" spans="1:68">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -10218,10 +10086,10 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -10415,11 +10283,8 @@
       <c r="BP44">
         <v>0</v>
       </c>
-      <c r="BQ44">
-        <v>0</v>
-      </c>
     </row>
-    <row r="45" spans="1:69">
+    <row r="45" spans="1:68">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -10427,10 +10292,10 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -10624,22 +10489,19 @@
       <c r="BP45">
         <v>0</v>
       </c>
-      <c r="BQ45">
-        <v>0</v>
-      </c>
     </row>
-    <row r="46" spans="1:69">
+    <row r="46" spans="1:68">
       <c r="A46" s="1">
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -10833,11 +10695,8 @@
       <c r="BP46">
         <v>0</v>
       </c>
-      <c r="BQ46">
-        <v>0</v>
-      </c>
     </row>
-    <row r="47" spans="1:69">
+    <row r="47" spans="1:68">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -11042,22 +10901,19 @@
       <c r="BP47">
         <v>0</v>
       </c>
-      <c r="BQ47">
-        <v>0</v>
-      </c>
     </row>
-    <row r="48" spans="1:69">
+    <row r="48" spans="1:68">
       <c r="A48" s="1">
         <v>48</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -11251,11 +11107,8 @@
       <c r="BP48">
         <v>0</v>
       </c>
-      <c r="BQ48">
-        <v>0</v>
-      </c>
     </row>
-    <row r="49" spans="1:69">
+    <row r="49" spans="1:68">
       <c r="A49" s="1">
         <v>553</v>
       </c>
@@ -11263,10 +11116,10 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -11460,19 +11313,16 @@
       <c r="BP49">
         <v>0</v>
       </c>
-      <c r="BQ49">
-        <v>0</v>
-      </c>
     </row>
-    <row r="50" spans="1:69">
+    <row r="50" spans="1:68">
       <c r="A50" s="1">
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -11669,11 +11519,8 @@
       <c r="BP50">
         <v>0</v>
       </c>
-      <c r="BQ50">
-        <v>0</v>
-      </c>
     </row>
-    <row r="51" spans="1:69">
+    <row r="51" spans="1:68">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -11681,10 +11528,10 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -11878,22 +11725,19 @@
       <c r="BP51">
         <v>0</v>
       </c>
-      <c r="BQ51">
-        <v>0</v>
-      </c>
     </row>
-    <row r="52" spans="1:69">
+    <row r="52" spans="1:68">
       <c r="A52" s="1">
         <v>52</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -12087,11 +11931,8 @@
       <c r="BP52">
         <v>0</v>
       </c>
-      <c r="BQ52">
-        <v>0</v>
-      </c>
     </row>
-    <row r="53" spans="1:69">
+    <row r="53" spans="1:68">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -12296,22 +12137,19 @@
       <c r="BP53">
         <v>0</v>
       </c>
-      <c r="BQ53">
-        <v>0</v>
-      </c>
     </row>
-    <row r="54" spans="1:69">
+    <row r="54" spans="1:68">
       <c r="A54" s="1">
         <v>55</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -12505,22 +12343,19 @@
       <c r="BP54">
         <v>0</v>
       </c>
-      <c r="BQ54">
-        <v>0</v>
-      </c>
     </row>
-    <row r="55" spans="1:69">
+    <row r="55" spans="1:68">
       <c r="A55" s="1">
         <v>56</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -12714,11 +12549,8 @@
       <c r="BP55">
         <v>0</v>
       </c>
-      <c r="BQ55">
-        <v>0</v>
-      </c>
     </row>
-    <row r="56" spans="1:69">
+    <row r="56" spans="1:68">
       <c r="A56" s="1">
         <v>57</v>
       </c>
@@ -12726,10 +12558,10 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -12923,22 +12755,19 @@
       <c r="BP56">
         <v>0</v>
       </c>
-      <c r="BQ56">
-        <v>0</v>
-      </c>
     </row>
-    <row r="57" spans="1:69">
+    <row r="57" spans="1:68">
       <c r="A57" s="1">
         <v>58</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -13132,22 +12961,19 @@
       <c r="BP57">
         <v>0</v>
       </c>
-      <c r="BQ57">
-        <v>0</v>
-      </c>
     </row>
-    <row r="58" spans="1:69">
+    <row r="58" spans="1:68">
       <c r="A58" s="1">
         <v>60</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -13341,22 +13167,19 @@
       <c r="BP58">
         <v>0</v>
       </c>
-      <c r="BQ58">
-        <v>0</v>
-      </c>
     </row>
-    <row r="59" spans="1:69">
+    <row r="59" spans="1:68">
       <c r="A59" s="1">
         <v>62</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -13550,22 +13373,19 @@
       <c r="BP59">
         <v>0</v>
       </c>
-      <c r="BQ59">
-        <v>0</v>
-      </c>
     </row>
-    <row r="60" spans="1:69">
+    <row r="60" spans="1:68">
       <c r="A60" s="1">
         <v>64</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -13759,22 +13579,19 @@
       <c r="BP60">
         <v>0</v>
       </c>
-      <c r="BQ60">
-        <v>0</v>
-      </c>
     </row>
-    <row r="61" spans="1:69">
+    <row r="61" spans="1:68">
       <c r="A61" s="1">
         <v>65</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -13968,19 +13785,16 @@
       <c r="BP61">
         <v>0</v>
       </c>
-      <c r="BQ61">
-        <v>0</v>
-      </c>
     </row>
-    <row r="62" spans="1:69">
+    <row r="62" spans="1:68">
       <c r="A62" s="1">
         <v>66</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -14177,22 +13991,19 @@
       <c r="BP62">
         <v>0</v>
       </c>
-      <c r="BQ62">
-        <v>0</v>
-      </c>
     </row>
-    <row r="63" spans="1:69">
+    <row r="63" spans="1:68">
       <c r="A63" s="1">
         <v>67</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -14386,22 +14197,19 @@
       <c r="BP63">
         <v>0</v>
       </c>
-      <c r="BQ63">
-        <v>0</v>
-      </c>
     </row>
-    <row r="64" spans="1:69">
+    <row r="64" spans="1:68">
       <c r="A64" s="1">
         <v>68</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -14595,22 +14403,19 @@
       <c r="BP64">
         <v>0</v>
       </c>
-      <c r="BQ64">
-        <v>0</v>
-      </c>
     </row>
-    <row r="65" spans="1:69">
+    <row r="65" spans="1:68">
       <c r="A65" s="1">
         <v>69</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -14804,11 +14609,8 @@
       <c r="BP65">
         <v>0</v>
       </c>
-      <c r="BQ65">
-        <v>0</v>
-      </c>
     </row>
-    <row r="66" spans="1:69">
+    <row r="66" spans="1:68">
       <c r="A66" s="1">
         <v>70</v>
       </c>
@@ -15013,11 +14815,8 @@
       <c r="BP66">
         <v>0</v>
       </c>
-      <c r="BQ66">
-        <v>0</v>
-      </c>
     </row>
-    <row r="67" spans="1:69">
+    <row r="67" spans="1:68">
       <c r="A67" s="1">
         <v>1132</v>
       </c>
@@ -15025,10 +14824,10 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -15222,22 +15021,19 @@
       <c r="BP67">
         <v>0</v>
       </c>
-      <c r="BQ67">
-        <v>0</v>
-      </c>
     </row>
-    <row r="68" spans="1:69">
+    <row r="68" spans="1:68">
       <c r="A68" s="1">
         <v>74</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -15431,11 +15227,8 @@
       <c r="BP68">
         <v>0</v>
       </c>
-      <c r="BQ68">
-        <v>0</v>
-      </c>
     </row>
-    <row r="69" spans="1:69">
+    <row r="69" spans="1:68">
       <c r="A69" s="1">
         <v>76</v>
       </c>
@@ -15443,10 +15236,10 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -15640,22 +15433,19 @@
       <c r="BP69">
         <v>0</v>
       </c>
-      <c r="BQ69">
-        <v>0</v>
-      </c>
     </row>
-    <row r="70" spans="1:69">
+    <row r="70" spans="1:68">
       <c r="A70" s="1">
         <v>81</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -15849,22 +15639,19 @@
       <c r="BP70">
         <v>0</v>
       </c>
-      <c r="BQ70">
-        <v>0</v>
-      </c>
     </row>
-    <row r="71" spans="1:69">
+    <row r="71" spans="1:68">
       <c r="A71" s="1">
         <v>1105</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -16058,22 +15845,19 @@
       <c r="BP71">
         <v>0</v>
       </c>
-      <c r="BQ71">
-        <v>0</v>
-      </c>
     </row>
-    <row r="72" spans="1:69">
+    <row r="72" spans="1:68">
       <c r="A72" s="1">
         <v>83</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -16267,11 +16051,8 @@
       <c r="BP72">
         <v>0</v>
       </c>
-      <c r="BQ72">
-        <v>0</v>
-      </c>
     </row>
-    <row r="73" spans="1:69">
+    <row r="73" spans="1:68">
       <c r="A73" s="1">
         <v>84</v>
       </c>
@@ -16279,10 +16060,10 @@
         <v>1</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -16476,22 +16257,19 @@
       <c r="BP73">
         <v>0</v>
       </c>
-      <c r="BQ73">
-        <v>0</v>
-      </c>
     </row>
-    <row r="74" spans="1:69">
+    <row r="74" spans="1:68">
       <c r="A74" s="1">
         <v>86</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -16685,11 +16463,8 @@
       <c r="BP74">
         <v>0</v>
       </c>
-      <c r="BQ74">
-        <v>0</v>
-      </c>
     </row>
-    <row r="75" spans="1:69">
+    <row r="75" spans="1:68">
       <c r="A75" s="1">
         <v>87</v>
       </c>
@@ -16697,10 +16472,10 @@
         <v>1</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -16894,11 +16669,8 @@
       <c r="BP75">
         <v>0</v>
       </c>
-      <c r="BQ75">
-        <v>0</v>
-      </c>
     </row>
-    <row r="76" spans="1:69">
+    <row r="76" spans="1:68">
       <c r="A76" s="1">
         <v>88</v>
       </c>
@@ -16906,10 +16678,10 @@
         <v>1</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -17103,22 +16875,19 @@
       <c r="BP76">
         <v>0</v>
       </c>
-      <c r="BQ76">
-        <v>0</v>
-      </c>
     </row>
-    <row r="77" spans="1:69">
+    <row r="77" spans="1:68">
       <c r="A77" s="1">
         <v>89</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -17312,22 +17081,19 @@
       <c r="BP77">
         <v>0</v>
       </c>
-      <c r="BQ77">
-        <v>0</v>
-      </c>
     </row>
-    <row r="78" spans="1:69">
+    <row r="78" spans="1:68">
       <c r="A78" s="1">
         <v>91</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -17521,22 +17287,19 @@
       <c r="BP78">
         <v>0</v>
       </c>
-      <c r="BQ78">
-        <v>0</v>
-      </c>
     </row>
-    <row r="79" spans="1:69">
+    <row r="79" spans="1:68">
       <c r="A79" s="1">
         <v>93</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -17730,22 +17493,19 @@
       <c r="BP79">
         <v>0</v>
       </c>
-      <c r="BQ79">
-        <v>0</v>
-      </c>
     </row>
-    <row r="80" spans="1:69">
+    <row r="80" spans="1:68">
       <c r="A80" s="1">
         <v>97</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -17939,22 +17699,19 @@
       <c r="BP80">
         <v>0</v>
       </c>
-      <c r="BQ80">
-        <v>0</v>
-      </c>
     </row>
-    <row r="81" spans="1:69">
+    <row r="81" spans="1:68">
       <c r="A81" s="1">
         <v>98</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -18148,22 +17905,19 @@
       <c r="BP81">
         <v>0</v>
       </c>
-      <c r="BQ81">
-        <v>0</v>
-      </c>
     </row>
-    <row r="82" spans="1:69">
+    <row r="82" spans="1:68">
       <c r="A82" s="1">
         <v>1635</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -18310,10 +18064,10 @@
         <v>0</v>
       </c>
       <c r="BA82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC82">
         <v>0</v>
@@ -18357,22 +18111,19 @@
       <c r="BP82">
         <v>0</v>
       </c>
-      <c r="BQ82">
-        <v>0</v>
-      </c>
     </row>
-    <row r="83" spans="1:69">
+    <row r="83" spans="1:68">
       <c r="A83" s="1">
         <v>103</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -18566,22 +18317,19 @@
       <c r="BP83">
         <v>0</v>
       </c>
-      <c r="BQ83">
-        <v>0</v>
-      </c>
     </row>
-    <row r="84" spans="1:69">
+    <row r="84" spans="1:68">
       <c r="A84" s="1">
         <v>104</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -18710,10 +18458,10 @@
         <v>0</v>
       </c>
       <c r="AU84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW84">
         <v>0</v>
@@ -18775,11 +18523,8 @@
       <c r="BP84">
         <v>0</v>
       </c>
-      <c r="BQ84">
-        <v>0</v>
-      </c>
     </row>
-    <row r="85" spans="1:69">
+    <row r="85" spans="1:68">
       <c r="A85" s="1">
         <v>615</v>
       </c>
@@ -18787,10 +18532,10 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -18984,22 +18729,19 @@
       <c r="BP85">
         <v>0</v>
       </c>
-      <c r="BQ85">
-        <v>0</v>
-      </c>
     </row>
-    <row r="86" spans="1:69">
+    <row r="86" spans="1:68">
       <c r="A86" s="1">
         <v>106</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -19193,11 +18935,8 @@
       <c r="BP86">
         <v>0</v>
       </c>
-      <c r="BQ86">
-        <v>0</v>
-      </c>
     </row>
-    <row r="87" spans="1:69">
+    <row r="87" spans="1:68">
       <c r="A87" s="1">
         <v>108</v>
       </c>
@@ -19205,10 +18944,10 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -19402,11 +19141,8 @@
       <c r="BP87">
         <v>0</v>
       </c>
-      <c r="BQ87">
-        <v>0</v>
-      </c>
     </row>
-    <row r="88" spans="1:69">
+    <row r="88" spans="1:68">
       <c r="A88" s="1">
         <v>109</v>
       </c>
@@ -19414,10 +19150,10 @@
         <v>1</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -19611,22 +19347,19 @@
       <c r="BP88">
         <v>0</v>
       </c>
-      <c r="BQ88">
-        <v>0</v>
-      </c>
     </row>
-    <row r="89" spans="1:69">
+    <row r="89" spans="1:68">
       <c r="A89" s="1">
         <v>110</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -19820,11 +19553,8 @@
       <c r="BP89">
         <v>0</v>
       </c>
-      <c r="BQ89">
-        <v>0</v>
-      </c>
     </row>
-    <row r="90" spans="1:69">
+    <row r="90" spans="1:68">
       <c r="A90" s="1">
         <v>111</v>
       </c>
@@ -19832,10 +19562,10 @@
         <v>1</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -20029,11 +19759,8 @@
       <c r="BP90">
         <v>0</v>
       </c>
-      <c r="BQ90">
-        <v>0</v>
-      </c>
     </row>
-    <row r="91" spans="1:69">
+    <row r="91" spans="1:68">
       <c r="A91" s="1">
         <v>112</v>
       </c>
@@ -20238,11 +19965,8 @@
       <c r="BP91">
         <v>0</v>
       </c>
-      <c r="BQ91">
-        <v>0</v>
-      </c>
     </row>
-    <row r="92" spans="1:69">
+    <row r="92" spans="1:68">
       <c r="A92" s="1">
         <v>113</v>
       </c>
@@ -20250,10 +19974,10 @@
         <v>1</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -20447,22 +20171,19 @@
       <c r="BP92">
         <v>0</v>
       </c>
-      <c r="BQ92">
-        <v>0</v>
-      </c>
     </row>
-    <row r="93" spans="1:69">
+    <row r="93" spans="1:68">
       <c r="A93" s="1">
         <v>114</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -20656,22 +20377,19 @@
       <c r="BP93">
         <v>0</v>
       </c>
-      <c r="BQ93">
-        <v>0</v>
-      </c>
     </row>
-    <row r="94" spans="1:69">
+    <row r="94" spans="1:68">
       <c r="A94" s="1">
         <v>115</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -20865,11 +20583,8 @@
       <c r="BP94">
         <v>0</v>
       </c>
-      <c r="BQ94">
-        <v>0</v>
-      </c>
     </row>
-    <row r="95" spans="1:69">
+    <row r="95" spans="1:68">
       <c r="A95" s="1">
         <v>116</v>
       </c>
@@ -20877,10 +20592,10 @@
         <v>1</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -21074,11 +20789,8 @@
       <c r="BP95">
         <v>0</v>
       </c>
-      <c r="BQ95">
-        <v>0</v>
-      </c>
     </row>
-    <row r="96" spans="1:69">
+    <row r="96" spans="1:68">
       <c r="A96" s="1">
         <v>117</v>
       </c>
@@ -21086,10 +20798,10 @@
         <v>1</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -21283,22 +20995,19 @@
       <c r="BP96">
         <v>0</v>
       </c>
-      <c r="BQ96">
-        <v>0</v>
-      </c>
     </row>
-    <row r="97" spans="1:69">
+    <row r="97" spans="1:68">
       <c r="A97" s="1">
         <v>118</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -21492,22 +21201,19 @@
       <c r="BP97">
         <v>0</v>
       </c>
-      <c r="BQ97">
-        <v>0</v>
-      </c>
     </row>
-    <row r="98" spans="1:69">
+    <row r="98" spans="1:68">
       <c r="A98" s="1">
         <v>119</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -21701,22 +21407,19 @@
       <c r="BP98">
         <v>0</v>
       </c>
-      <c r="BQ98">
-        <v>0</v>
-      </c>
     </row>
-    <row r="99" spans="1:69">
+    <row r="99" spans="1:68">
       <c r="A99" s="1">
         <v>120</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -21910,22 +21613,19 @@
       <c r="BP99">
         <v>0</v>
       </c>
-      <c r="BQ99">
-        <v>0</v>
-      </c>
     </row>
-    <row r="100" spans="1:69">
+    <row r="100" spans="1:68">
       <c r="A100" s="1">
         <v>121</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -22119,19 +21819,16 @@
       <c r="BP100">
         <v>0</v>
       </c>
-      <c r="BQ100">
-        <v>0</v>
-      </c>
     </row>
-    <row r="101" spans="1:69">
+    <row r="101" spans="1:68">
       <c r="A101" s="1">
         <v>122</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -22328,11 +22025,8 @@
       <c r="BP101">
         <v>0</v>
       </c>
-      <c r="BQ101">
-        <v>0</v>
-      </c>
     </row>
-    <row r="102" spans="1:69">
+    <row r="102" spans="1:68">
       <c r="A102" s="1">
         <v>123</v>
       </c>
@@ -22340,10 +22034,10 @@
         <v>1</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -22537,22 +22231,19 @@
       <c r="BP102">
         <v>0</v>
       </c>
-      <c r="BQ102">
-        <v>0</v>
-      </c>
     </row>
-    <row r="103" spans="1:69">
+    <row r="103" spans="1:68">
       <c r="A103" s="1">
         <v>124</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -22746,19 +22437,16 @@
       <c r="BP103">
         <v>0</v>
       </c>
-      <c r="BQ103">
-        <v>0</v>
-      </c>
     </row>
-    <row r="104" spans="1:69">
+    <row r="104" spans="1:68">
       <c r="A104" s="1">
         <v>125</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -22955,22 +22643,19 @@
       <c r="BP104">
         <v>0</v>
       </c>
-      <c r="BQ104">
-        <v>0</v>
-      </c>
     </row>
-    <row r="105" spans="1:69">
+    <row r="105" spans="1:68">
       <c r="A105" s="1">
         <v>126</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -23164,22 +22849,19 @@
       <c r="BP105">
         <v>0</v>
       </c>
-      <c r="BQ105">
-        <v>0</v>
-      </c>
     </row>
-    <row r="106" spans="1:69">
+    <row r="106" spans="1:68">
       <c r="A106" s="1">
         <v>127</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -23373,22 +23055,19 @@
       <c r="BP106">
         <v>0</v>
       </c>
-      <c r="BQ106">
-        <v>0</v>
-      </c>
     </row>
-    <row r="107" spans="1:69">
+    <row r="107" spans="1:68">
       <c r="A107" s="1">
         <v>128</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -23582,11 +23261,8 @@
       <c r="BP107">
         <v>0</v>
       </c>
-      <c r="BQ107">
-        <v>0</v>
-      </c>
     </row>
-    <row r="108" spans="1:69">
+    <row r="108" spans="1:68">
       <c r="A108" s="1">
         <v>1148</v>
       </c>
@@ -23791,22 +23467,19 @@
       <c r="BP108">
         <v>0</v>
       </c>
-      <c r="BQ108">
-        <v>0</v>
-      </c>
     </row>
-    <row r="109" spans="1:69">
+    <row r="109" spans="1:68">
       <c r="A109" s="1">
         <v>130</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -23935,10 +23608,10 @@
         <v>0</v>
       </c>
       <c r="AU109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW109">
         <v>0</v>
@@ -24000,22 +23673,19 @@
       <c r="BP109">
         <v>0</v>
       </c>
-      <c r="BQ109">
-        <v>0</v>
-      </c>
     </row>
-    <row r="110" spans="1:69">
+    <row r="110" spans="1:68">
       <c r="A110" s="1">
         <v>131</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -24209,11 +23879,8 @@
       <c r="BP110">
         <v>0</v>
       </c>
-      <c r="BQ110">
-        <v>0</v>
-      </c>
     </row>
-    <row r="111" spans="1:69">
+    <row r="111" spans="1:68">
       <c r="A111" s="1">
         <v>132</v>
       </c>
@@ -24221,10 +23888,10 @@
         <v>1</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -24418,19 +24085,16 @@
       <c r="BP111">
         <v>0</v>
       </c>
-      <c r="BQ111">
-        <v>0</v>
-      </c>
     </row>
-    <row r="112" spans="1:69">
+    <row r="112" spans="1:68">
       <c r="A112" s="1">
         <v>133</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -24627,11 +24291,8 @@
       <c r="BP112">
         <v>0</v>
       </c>
-      <c r="BQ112">
-        <v>0</v>
-      </c>
     </row>
-    <row r="113" spans="1:69">
+    <row r="113" spans="1:68">
       <c r="A113" s="1">
         <v>135</v>
       </c>
@@ -24639,10 +24300,10 @@
         <v>1</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -24836,11 +24497,8 @@
       <c r="BP113">
         <v>0</v>
       </c>
-      <c r="BQ113">
-        <v>0</v>
-      </c>
     </row>
-    <row r="114" spans="1:69">
+    <row r="114" spans="1:68">
       <c r="A114" s="1">
         <v>136</v>
       </c>
@@ -24848,10 +24506,10 @@
         <v>1</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -25045,11 +24703,8 @@
       <c r="BP114">
         <v>0</v>
       </c>
-      <c r="BQ114">
-        <v>0</v>
-      </c>
     </row>
-    <row r="115" spans="1:69">
+    <row r="115" spans="1:68">
       <c r="A115" s="1">
         <v>137</v>
       </c>
@@ -25057,10 +24712,10 @@
         <v>1</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -25254,11 +24909,8 @@
       <c r="BP115">
         <v>0</v>
       </c>
-      <c r="BQ115">
-        <v>0</v>
-      </c>
     </row>
-    <row r="116" spans="1:69">
+    <row r="116" spans="1:68">
       <c r="A116" s="1">
         <v>138</v>
       </c>
@@ -25266,10 +24918,10 @@
         <v>1</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -25463,11 +25115,8 @@
       <c r="BP116">
         <v>0</v>
       </c>
-      <c r="BQ116">
-        <v>0</v>
-      </c>
     </row>
-    <row r="117" spans="1:69">
+    <row r="117" spans="1:68">
       <c r="A117" s="1">
         <v>139</v>
       </c>
@@ -25672,22 +25321,19 @@
       <c r="BP117">
         <v>0</v>
       </c>
-      <c r="BQ117">
-        <v>0</v>
-      </c>
     </row>
-    <row r="118" spans="1:69">
+    <row r="118" spans="1:68">
       <c r="A118" s="1">
         <v>140</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -25881,22 +25527,19 @@
       <c r="BP118">
         <v>0</v>
       </c>
-      <c r="BQ118">
-        <v>0</v>
-      </c>
     </row>
-    <row r="119" spans="1:69">
+    <row r="119" spans="1:68">
       <c r="A119" s="1">
         <v>141</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -26090,22 +25733,19 @@
       <c r="BP119">
         <v>0</v>
       </c>
-      <c r="BQ119">
-        <v>0</v>
-      </c>
     </row>
-    <row r="120" spans="1:69">
+    <row r="120" spans="1:68">
       <c r="A120" s="1">
         <v>142</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -26299,11 +25939,8 @@
       <c r="BP120">
         <v>0</v>
       </c>
-      <c r="BQ120">
-        <v>0</v>
-      </c>
     </row>
-    <row r="121" spans="1:69">
+    <row r="121" spans="1:68">
       <c r="A121" s="1">
         <v>143</v>
       </c>
@@ -26311,10 +25948,10 @@
         <v>1</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -26508,11 +26145,8 @@
       <c r="BP121">
         <v>0</v>
       </c>
-      <c r="BQ121">
-        <v>0</v>
-      </c>
     </row>
-    <row r="122" spans="1:69">
+    <row r="122" spans="1:68">
       <c r="A122" s="1">
         <v>144</v>
       </c>
@@ -26520,10 +26154,10 @@
         <v>1</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -26717,11 +26351,8 @@
       <c r="BP122">
         <v>0</v>
       </c>
-      <c r="BQ122">
-        <v>0</v>
-      </c>
     </row>
-    <row r="123" spans="1:69">
+    <row r="123" spans="1:68">
       <c r="A123" s="1">
         <v>145</v>
       </c>
@@ -26926,22 +26557,19 @@
       <c r="BP123">
         <v>0</v>
       </c>
-      <c r="BQ123">
-        <v>0</v>
-      </c>
     </row>
-    <row r="124" spans="1:69">
+    <row r="124" spans="1:68">
       <c r="A124" s="1">
         <v>146</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124">
         <v>0</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -27135,22 +26763,19 @@
       <c r="BP124">
         <v>0</v>
       </c>
-      <c r="BQ124">
-        <v>0</v>
-      </c>
     </row>
-    <row r="125" spans="1:69">
+    <row r="125" spans="1:68">
       <c r="A125" s="1">
         <v>147</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125">
         <v>0</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -27344,11 +26969,8 @@
       <c r="BP125">
         <v>0</v>
       </c>
-      <c r="BQ125">
-        <v>0</v>
-      </c>
     </row>
-    <row r="126" spans="1:69">
+    <row r="126" spans="1:68">
       <c r="A126" s="1">
         <v>148</v>
       </c>
@@ -27356,10 +26978,10 @@
         <v>1</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -27553,11 +27175,8 @@
       <c r="BP126">
         <v>0</v>
       </c>
-      <c r="BQ126">
-        <v>0</v>
-      </c>
     </row>
-    <row r="127" spans="1:69">
+    <row r="127" spans="1:68">
       <c r="A127" s="1">
         <v>149</v>
       </c>
@@ -27565,10 +27184,10 @@
         <v>1</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -27762,11 +27381,8 @@
       <c r="BP127">
         <v>0</v>
       </c>
-      <c r="BQ127">
-        <v>0</v>
-      </c>
     </row>
-    <row r="128" spans="1:69">
+    <row r="128" spans="1:68">
       <c r="A128" s="1">
         <v>150</v>
       </c>
@@ -27774,10 +27390,10 @@
         <v>1</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -27971,11 +27587,8 @@
       <c r="BP128">
         <v>0</v>
       </c>
-      <c r="BQ128">
-        <v>0</v>
-      </c>
     </row>
-    <row r="129" spans="1:69">
+    <row r="129" spans="1:68">
       <c r="A129" s="1">
         <v>151</v>
       </c>
@@ -27983,10 +27596,10 @@
         <v>1</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -28180,11 +27793,8 @@
       <c r="BP129">
         <v>0</v>
       </c>
-      <c r="BQ129">
-        <v>0</v>
-      </c>
     </row>
-    <row r="130" spans="1:69">
+    <row r="130" spans="1:68">
       <c r="A130" s="1">
         <v>152</v>
       </c>
@@ -28192,10 +27802,10 @@
         <v>1</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -28389,22 +27999,19 @@
       <c r="BP130">
         <v>0</v>
       </c>
-      <c r="BQ130">
-        <v>0</v>
-      </c>
     </row>
-    <row r="131" spans="1:69">
+    <row r="131" spans="1:68">
       <c r="A131" s="1">
         <v>153</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131">
         <v>0</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -28598,22 +28205,19 @@
       <c r="BP131">
         <v>0</v>
       </c>
-      <c r="BQ131">
-        <v>0</v>
-      </c>
     </row>
-    <row r="132" spans="1:69">
+    <row r="132" spans="1:68">
       <c r="A132" s="1">
         <v>154</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132">
         <v>0</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -28807,22 +28411,19 @@
       <c r="BP132">
         <v>0</v>
       </c>
-      <c r="BQ132">
-        <v>0</v>
-      </c>
     </row>
-    <row r="133" spans="1:69">
+    <row r="133" spans="1:68">
       <c r="A133" s="1">
         <v>155</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133">
         <v>0</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -29016,11 +28617,8 @@
       <c r="BP133">
         <v>0</v>
       </c>
-      <c r="BQ133">
-        <v>0</v>
-      </c>
     </row>
-    <row r="134" spans="1:69">
+    <row r="134" spans="1:68">
       <c r="A134" s="1">
         <v>156</v>
       </c>
@@ -29028,10 +28626,10 @@
         <v>1</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -29225,11 +28823,8 @@
       <c r="BP134">
         <v>0</v>
       </c>
-      <c r="BQ134">
-        <v>0</v>
-      </c>
     </row>
-    <row r="135" spans="1:69">
+    <row r="135" spans="1:68">
       <c r="A135" s="1">
         <v>157</v>
       </c>
@@ -29237,10 +28832,10 @@
         <v>1</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -29434,22 +29029,19 @@
       <c r="BP135">
         <v>0</v>
       </c>
-      <c r="BQ135">
-        <v>0</v>
-      </c>
     </row>
-    <row r="136" spans="1:69">
+    <row r="136" spans="1:68">
       <c r="A136" s="1">
         <v>158</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -29643,22 +29235,19 @@
       <c r="BP136">
         <v>0</v>
       </c>
-      <c r="BQ136">
-        <v>0</v>
-      </c>
     </row>
-    <row r="137" spans="1:69">
+    <row r="137" spans="1:68">
       <c r="A137" s="1">
         <v>161</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -29852,11 +29441,8 @@
       <c r="BP137">
         <v>0</v>
       </c>
-      <c r="BQ137">
-        <v>0</v>
-      </c>
     </row>
-    <row r="138" spans="1:69">
+    <row r="138" spans="1:68">
       <c r="A138" s="1">
         <v>162</v>
       </c>
@@ -30061,11 +29647,8 @@
       <c r="BP138">
         <v>0</v>
       </c>
-      <c r="BQ138">
-        <v>0</v>
-      </c>
     </row>
-    <row r="139" spans="1:69">
+    <row r="139" spans="1:68">
       <c r="A139" s="1">
         <v>2209</v>
       </c>
@@ -30073,10 +29656,10 @@
         <v>1</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -30270,22 +29853,19 @@
       <c r="BP139">
         <v>0</v>
       </c>
-      <c r="BQ139">
-        <v>0</v>
-      </c>
     </row>
-    <row r="140" spans="1:69">
+    <row r="140" spans="1:68">
       <c r="A140" s="1">
         <v>676</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140">
         <v>0</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -30479,22 +30059,19 @@
       <c r="BP140">
         <v>0</v>
       </c>
-      <c r="BQ140">
-        <v>0</v>
-      </c>
     </row>
-    <row r="141" spans="1:69">
+    <row r="141" spans="1:68">
       <c r="A141" s="1">
         <v>165</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141">
         <v>0</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -30688,22 +30265,19 @@
       <c r="BP141">
         <v>0</v>
       </c>
-      <c r="BQ141">
-        <v>0</v>
-      </c>
     </row>
-    <row r="142" spans="1:69">
+    <row r="142" spans="1:68">
       <c r="A142" s="1">
         <v>166</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142">
         <v>0</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -30897,22 +30471,19 @@
       <c r="BP142">
         <v>0</v>
       </c>
-      <c r="BQ142">
-        <v>0</v>
-      </c>
     </row>
-    <row r="143" spans="1:69">
+    <row r="143" spans="1:68">
       <c r="A143" s="1">
         <v>1190</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143">
         <v>0</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -31106,19 +30677,16 @@
       <c r="BP143">
         <v>0</v>
       </c>
-      <c r="BQ143">
-        <v>0</v>
-      </c>
     </row>
-    <row r="144" spans="1:69">
+    <row r="144" spans="1:68">
       <c r="A144" s="1">
         <v>168</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -31315,11 +30883,8 @@
       <c r="BP144">
         <v>0</v>
       </c>
-      <c r="BQ144">
-        <v>0</v>
-      </c>
     </row>
-    <row r="145" spans="1:69">
+    <row r="145" spans="1:68">
       <c r="A145" s="1">
         <v>1703</v>
       </c>
@@ -31524,22 +31089,19 @@
       <c r="BP145">
         <v>0</v>
       </c>
-      <c r="BQ145">
-        <v>0</v>
-      </c>
     </row>
-    <row r="146" spans="1:69">
+    <row r="146" spans="1:68">
       <c r="A146" s="1">
         <v>1708</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -31733,22 +31295,19 @@
       <c r="BP146">
         <v>0</v>
       </c>
-      <c r="BQ146">
-        <v>0</v>
-      </c>
     </row>
-    <row r="147" spans="1:69">
+    <row r="147" spans="1:68">
       <c r="A147" s="1">
         <v>173</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -31942,11 +31501,8 @@
       <c r="BP147">
         <v>0</v>
       </c>
-      <c r="BQ147">
-        <v>0</v>
-      </c>
     </row>
-    <row r="148" spans="1:69">
+    <row r="148" spans="1:68">
       <c r="A148" s="1">
         <v>177</v>
       </c>
@@ -31957,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -32151,22 +31707,19 @@
       <c r="BP148">
         <v>0</v>
       </c>
-      <c r="BQ148">
-        <v>0</v>
-      </c>
     </row>
-    <row r="149" spans="1:69">
+    <row r="149" spans="1:68">
       <c r="A149" s="1">
         <v>694</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149">
         <v>0</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -32360,11 +31913,8 @@
       <c r="BP149">
         <v>0</v>
       </c>
-      <c r="BQ149">
-        <v>0</v>
-      </c>
     </row>
-    <row r="150" spans="1:69">
+    <row r="150" spans="1:68">
       <c r="A150" s="1">
         <v>186</v>
       </c>
@@ -32372,10 +31922,10 @@
         <v>1</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -32569,11 +32119,8 @@
       <c r="BP150">
         <v>0</v>
       </c>
-      <c r="BQ150">
-        <v>0</v>
-      </c>
     </row>
-    <row r="151" spans="1:69">
+    <row r="151" spans="1:68">
       <c r="A151" s="1">
         <v>188</v>
       </c>
@@ -32581,10 +32128,10 @@
         <v>1</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -32778,22 +32325,19 @@
       <c r="BP151">
         <v>0</v>
       </c>
-      <c r="BQ151">
-        <v>0</v>
-      </c>
     </row>
-    <row r="152" spans="1:69">
+    <row r="152" spans="1:68">
       <c r="A152" s="1">
         <v>191</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152">
         <v>0</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -32987,22 +32531,19 @@
       <c r="BP152">
         <v>0</v>
       </c>
-      <c r="BQ152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="153" spans="1:69">
+    <row r="153" spans="1:68">
       <c r="A153" s="1">
         <v>192</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153">
         <v>0</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -33196,22 +32737,19 @@
       <c r="BP153">
         <v>0</v>
       </c>
-      <c r="BQ153">
-        <v>0</v>
-      </c>
     </row>
-    <row r="154" spans="1:69">
+    <row r="154" spans="1:68">
       <c r="A154" s="1">
         <v>193</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154">
         <v>0</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -33405,22 +32943,19 @@
       <c r="BP154">
         <v>0</v>
       </c>
-      <c r="BQ154">
-        <v>0</v>
-      </c>
     </row>
-    <row r="155" spans="1:69">
+    <row r="155" spans="1:68">
       <c r="A155" s="1">
         <v>194</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155">
         <v>0</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -33614,11 +33149,8 @@
       <c r="BP155">
         <v>0</v>
       </c>
-      <c r="BQ155">
-        <v>0</v>
-      </c>
     </row>
-    <row r="156" spans="1:69">
+    <row r="156" spans="1:68">
       <c r="A156" s="1">
         <v>195</v>
       </c>
@@ -33823,11 +33355,8 @@
       <c r="BP156">
         <v>0</v>
       </c>
-      <c r="BQ156">
-        <v>0</v>
-      </c>
     </row>
-    <row r="157" spans="1:69">
+    <row r="157" spans="1:68">
       <c r="A157" s="1">
         <v>196</v>
       </c>
@@ -34032,22 +33561,19 @@
       <c r="BP157">
         <v>0</v>
       </c>
-      <c r="BQ157">
-        <v>0</v>
-      </c>
     </row>
-    <row r="158" spans="1:69">
+    <row r="158" spans="1:68">
       <c r="A158" s="1">
         <v>197</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158">
         <v>0</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -34241,22 +33767,19 @@
       <c r="BP158">
         <v>0</v>
       </c>
-      <c r="BQ158">
-        <v>0</v>
-      </c>
     </row>
-    <row r="159" spans="1:69">
+    <row r="159" spans="1:68">
       <c r="A159" s="1">
         <v>198</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159">
         <v>0</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -34450,19 +33973,16 @@
       <c r="BP159">
         <v>0</v>
       </c>
-      <c r="BQ159">
-        <v>0</v>
-      </c>
     </row>
-    <row r="160" spans="1:69">
+    <row r="160" spans="1:68">
       <c r="A160" s="1">
         <v>199</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -34654,27 +34174,24 @@
         <v>0</v>
       </c>
       <c r="BO160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP160">
-        <v>1</v>
-      </c>
-      <c r="BQ160">
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:69">
+    <row r="161" spans="1:68">
       <c r="A161" s="1">
         <v>200</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161">
         <v>0</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -34868,11 +34385,8 @@
       <c r="BP161">
         <v>0</v>
       </c>
-      <c r="BQ161">
-        <v>0</v>
-      </c>
     </row>
-    <row r="162" spans="1:69">
+    <row r="162" spans="1:68">
       <c r="A162" s="1">
         <v>201</v>
       </c>
@@ -34880,10 +34394,10 @@
         <v>1</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -35077,11 +34591,8 @@
       <c r="BP162">
         <v>0</v>
       </c>
-      <c r="BQ162">
-        <v>0</v>
-      </c>
     </row>
-    <row r="163" spans="1:69">
+    <row r="163" spans="1:68">
       <c r="A163" s="1">
         <v>202</v>
       </c>
@@ -35089,10 +34600,10 @@
         <v>1</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -35286,11 +34797,8 @@
       <c r="BP163">
         <v>0</v>
       </c>
-      <c r="BQ163">
-        <v>0</v>
-      </c>
     </row>
-    <row r="164" spans="1:69">
+    <row r="164" spans="1:68">
       <c r="A164" s="1">
         <v>203</v>
       </c>
@@ -35495,11 +35003,8 @@
       <c r="BP164">
         <v>0</v>
       </c>
-      <c r="BQ164">
-        <v>0</v>
-      </c>
     </row>
-    <row r="165" spans="1:69">
+    <row r="165" spans="1:68">
       <c r="A165" s="1">
         <v>2766</v>
       </c>
@@ -35507,10 +35012,10 @@
         <v>1</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -35639,10 +35144,10 @@
         <v>0</v>
       </c>
       <c r="AU165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW165">
         <v>0</v>
@@ -35690,7 +35195,7 @@
         <v>0</v>
       </c>
       <c r="BL165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM165">
         <v>1</v>
@@ -35699,16 +35204,13 @@
         <v>1</v>
       </c>
       <c r="BO165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP165">
         <v>0</v>
       </c>
-      <c r="BQ165">
-        <v>0</v>
-      </c>
     </row>
-    <row r="166" spans="1:69">
+    <row r="166" spans="1:68">
       <c r="A166" s="1">
         <v>207</v>
       </c>
@@ -35913,22 +35415,19 @@
       <c r="BP166">
         <v>0</v>
       </c>
-      <c r="BQ166">
-        <v>0</v>
-      </c>
     </row>
-    <row r="167" spans="1:69">
+    <row r="167" spans="1:68">
       <c r="A167" s="1">
         <v>208</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167">
         <v>0</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -36122,11 +35621,8 @@
       <c r="BP167">
         <v>0</v>
       </c>
-      <c r="BQ167">
-        <v>0</v>
-      </c>
     </row>
-    <row r="168" spans="1:69">
+    <row r="168" spans="1:68">
       <c r="A168" s="1">
         <v>209</v>
       </c>
@@ -36134,10 +35630,10 @@
         <v>1</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -36331,11 +35827,8 @@
       <c r="BP168">
         <v>0</v>
       </c>
-      <c r="BQ168">
-        <v>0</v>
-      </c>
     </row>
-    <row r="169" spans="1:69">
+    <row r="169" spans="1:68">
       <c r="A169" s="1">
         <v>210</v>
       </c>
@@ -36343,10 +35836,10 @@
         <v>1</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -36540,11 +36033,8 @@
       <c r="BP169">
         <v>0</v>
       </c>
-      <c r="BQ169">
-        <v>0</v>
-      </c>
     </row>
-    <row r="170" spans="1:69">
+    <row r="170" spans="1:68">
       <c r="A170" s="1">
         <v>2771</v>
       </c>
@@ -36552,10 +36042,10 @@
         <v>1</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -36747,24 +36237,21 @@
         <v>0</v>
       </c>
       <c r="BP170">
-        <v>0</v>
-      </c>
-      <c r="BQ170">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:69">
+    <row r="171" spans="1:68">
       <c r="A171" s="1">
         <v>212</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171">
         <v>0</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -36958,22 +36445,19 @@
       <c r="BP171">
         <v>0</v>
       </c>
-      <c r="BQ171">
-        <v>0</v>
-      </c>
     </row>
-    <row r="172" spans="1:69">
+    <row r="172" spans="1:68">
       <c r="A172" s="1">
         <v>213</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C172">
         <v>0</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -37167,11 +36651,8 @@
       <c r="BP172">
         <v>0</v>
       </c>
-      <c r="BQ172">
-        <v>0</v>
-      </c>
     </row>
-    <row r="173" spans="1:69">
+    <row r="173" spans="1:68">
       <c r="A173" s="1">
         <v>215</v>
       </c>
@@ -37376,22 +36857,19 @@
       <c r="BP173">
         <v>0</v>
       </c>
-      <c r="BQ173">
-        <v>0</v>
-      </c>
     </row>
-    <row r="174" spans="1:69">
+    <row r="174" spans="1:68">
       <c r="A174" s="1">
         <v>1239</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -37585,11 +37063,8 @@
       <c r="BP174">
         <v>0</v>
       </c>
-      <c r="BQ174">
-        <v>0</v>
-      </c>
     </row>
-    <row r="175" spans="1:69">
+    <row r="175" spans="1:68">
       <c r="A175" s="1">
         <v>217</v>
       </c>
@@ -37597,10 +37072,10 @@
         <v>1</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -37794,19 +37269,16 @@
       <c r="BP175">
         <v>0</v>
       </c>
-      <c r="BQ175">
-        <v>0</v>
-      </c>
     </row>
-    <row r="176" spans="1:69">
+    <row r="176" spans="1:68">
       <c r="A176" s="1">
         <v>218</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -38003,22 +37475,19 @@
       <c r="BP176">
         <v>0</v>
       </c>
-      <c r="BQ176">
-        <v>0</v>
-      </c>
     </row>
-    <row r="177" spans="1:69">
+    <row r="177" spans="1:68">
       <c r="A177" s="1">
         <v>219</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177">
         <v>0</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -38212,22 +37681,19 @@
       <c r="BP177">
         <v>0</v>
       </c>
-      <c r="BQ177">
-        <v>0</v>
-      </c>
     </row>
-    <row r="178" spans="1:69">
+    <row r="178" spans="1:68">
       <c r="A178" s="1">
         <v>220</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178">
         <v>0</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -38421,22 +37887,19 @@
       <c r="BP178">
         <v>0</v>
       </c>
-      <c r="BQ178">
-        <v>0</v>
-      </c>
     </row>
-    <row r="179" spans="1:69">
+    <row r="179" spans="1:68">
       <c r="A179" s="1">
         <v>221</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179">
         <v>0</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -38630,19 +38093,16 @@
       <c r="BP179">
         <v>0</v>
       </c>
-      <c r="BQ179">
-        <v>0</v>
-      </c>
     </row>
-    <row r="180" spans="1:69">
+    <row r="180" spans="1:68">
       <c r="A180" s="1">
         <v>223</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -38839,11 +38299,8 @@
       <c r="BP180">
         <v>0</v>
       </c>
-      <c r="BQ180">
-        <v>0</v>
-      </c>
     </row>
-    <row r="181" spans="1:69">
+    <row r="181" spans="1:68">
       <c r="A181" s="1">
         <v>225</v>
       </c>
@@ -39048,22 +38505,19 @@
       <c r="BP181">
         <v>0</v>
       </c>
-      <c r="BQ181">
-        <v>0</v>
-      </c>
     </row>
-    <row r="182" spans="1:69">
+    <row r="182" spans="1:68">
       <c r="A182" s="1">
         <v>226</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182">
         <v>0</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -39257,22 +38711,19 @@
       <c r="BP182">
         <v>0</v>
       </c>
-      <c r="BQ182">
-        <v>0</v>
-      </c>
     </row>
-    <row r="183" spans="1:69">
+    <row r="183" spans="1:68">
       <c r="A183" s="1">
         <v>228</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -39466,19 +38917,16 @@
       <c r="BP183">
         <v>0</v>
       </c>
-      <c r="BQ183">
-        <v>0</v>
-      </c>
     </row>
-    <row r="184" spans="1:69">
+    <row r="184" spans="1:68">
       <c r="A184" s="1">
         <v>230</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -39675,11 +39123,8 @@
       <c r="BP184">
         <v>0</v>
       </c>
-      <c r="BQ184">
-        <v>0</v>
-      </c>
     </row>
-    <row r="185" spans="1:69">
+    <row r="185" spans="1:68">
       <c r="A185" s="1">
         <v>231</v>
       </c>
@@ -39687,10 +39132,10 @@
         <v>1</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -39884,11 +39329,8 @@
       <c r="BP185">
         <v>0</v>
       </c>
-      <c r="BQ185">
-        <v>0</v>
-      </c>
     </row>
-    <row r="186" spans="1:69">
+    <row r="186" spans="1:68">
       <c r="A186" s="1">
         <v>232</v>
       </c>
@@ -39899,7 +39341,7 @@
         <v>0</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -40093,11 +39535,8 @@
       <c r="BP186">
         <v>0</v>
       </c>
-      <c r="BQ186">
-        <v>0</v>
-      </c>
     </row>
-    <row r="187" spans="1:69">
+    <row r="187" spans="1:68">
       <c r="A187" s="1">
         <v>233</v>
       </c>
@@ -40108,7 +39547,7 @@
         <v>0</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -40302,11 +39741,8 @@
       <c r="BP187">
         <v>0</v>
       </c>
-      <c r="BQ187">
-        <v>0</v>
-      </c>
     </row>
-    <row r="188" spans="1:69">
+    <row r="188" spans="1:68">
       <c r="A188" s="1">
         <v>234</v>
       </c>
@@ -40317,7 +39753,7 @@
         <v>0</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -40511,22 +39947,19 @@
       <c r="BP188">
         <v>0</v>
       </c>
-      <c r="BQ188">
-        <v>0</v>
-      </c>
     </row>
-    <row r="189" spans="1:69">
+    <row r="189" spans="1:68">
       <c r="A189" s="1">
         <v>2793</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189">
         <v>0</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -40720,11 +40153,8 @@
       <c r="BP189">
         <v>0</v>
       </c>
-      <c r="BQ189">
-        <v>0</v>
-      </c>
     </row>
-    <row r="190" spans="1:69">
+    <row r="190" spans="1:68">
       <c r="A190" s="1">
         <v>236</v>
       </c>
@@ -40732,10 +40162,10 @@
         <v>1</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -40929,22 +40359,19 @@
       <c r="BP190">
         <v>0</v>
       </c>
-      <c r="BQ190">
-        <v>0</v>
-      </c>
     </row>
-    <row r="191" spans="1:69">
+    <row r="191" spans="1:68">
       <c r="A191" s="1">
         <v>237</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191">
         <v>0</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -41138,11 +40565,8 @@
       <c r="BP191">
         <v>0</v>
       </c>
-      <c r="BQ191">
-        <v>0</v>
-      </c>
     </row>
-    <row r="192" spans="1:69">
+    <row r="192" spans="1:68">
       <c r="A192" s="1">
         <v>2285</v>
       </c>
@@ -41153,7 +40577,7 @@
         <v>0</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -41347,11 +40771,8 @@
       <c r="BP192">
         <v>0</v>
       </c>
-      <c r="BQ192">
-        <v>0</v>
-      </c>
     </row>
-    <row r="193" spans="1:69">
+    <row r="193" spans="1:68">
       <c r="A193" s="1">
         <v>1776</v>
       </c>
@@ -41359,10 +40780,10 @@
         <v>1</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -41512,13 +40933,13 @@
         <v>0</v>
       </c>
       <c r="BB193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC193">
         <v>1</v>
       </c>
       <c r="BD193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE193">
         <v>0</v>
@@ -41556,22 +40977,19 @@
       <c r="BP193">
         <v>0</v>
       </c>
-      <c r="BQ193">
-        <v>0</v>
-      </c>
     </row>
-    <row r="194" spans="1:69">
+    <row r="194" spans="1:68">
       <c r="A194" s="1">
         <v>242</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194">
         <v>0</v>
       </c>
       <c r="D194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -41765,11 +41183,8 @@
       <c r="BP194">
         <v>0</v>
       </c>
-      <c r="BQ194">
-        <v>0</v>
-      </c>
     </row>
-    <row r="195" spans="1:69">
+    <row r="195" spans="1:68">
       <c r="A195" s="1">
         <v>247</v>
       </c>
@@ -41974,11 +41389,8 @@
       <c r="BP195">
         <v>0</v>
       </c>
-      <c r="BQ195">
-        <v>0</v>
-      </c>
     </row>
-    <row r="196" spans="1:69">
+    <row r="196" spans="1:68">
       <c r="A196" s="1">
         <v>249</v>
       </c>
@@ -42183,11 +41595,8 @@
       <c r="BP196">
         <v>0</v>
       </c>
-      <c r="BQ196">
-        <v>0</v>
-      </c>
     </row>
-    <row r="197" spans="1:69">
+    <row r="197" spans="1:68">
       <c r="A197" s="1">
         <v>1788</v>
       </c>
@@ -42195,10 +41604,10 @@
         <v>1</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -42327,10 +41736,10 @@
         <v>0</v>
       </c>
       <c r="AU197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW197">
         <v>0</v>
@@ -42354,10 +41763,10 @@
         <v>0</v>
       </c>
       <c r="BD197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF197">
         <v>0</v>
@@ -42390,24 +41799,21 @@
         <v>0</v>
       </c>
       <c r="BP197">
-        <v>0</v>
-      </c>
-      <c r="BQ197">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:69">
+    <row r="198" spans="1:68">
       <c r="A198" s="1">
         <v>2813</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198">
         <v>0</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E198">
         <v>1</v>
@@ -42596,27 +42002,24 @@
         <v>0</v>
       </c>
       <c r="BO198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP198">
-        <v>1</v>
-      </c>
-      <c r="BQ198">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:69">
+    <row r="199" spans="1:68">
       <c r="A199" s="1">
         <v>256</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199">
         <v>0</v>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -42810,11 +42213,8 @@
       <c r="BP199">
         <v>0</v>
       </c>
-      <c r="BQ199">
-        <v>0</v>
-      </c>
     </row>
-    <row r="200" spans="1:69">
+    <row r="200" spans="1:68">
       <c r="A200" s="1">
         <v>258</v>
       </c>
@@ -42822,10 +42222,10 @@
         <v>1</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -43019,22 +42419,19 @@
       <c r="BP200">
         <v>0</v>
       </c>
-      <c r="BQ200">
-        <v>0</v>
-      </c>
     </row>
-    <row r="201" spans="1:69">
+    <row r="201" spans="1:68">
       <c r="A201" s="1">
         <v>261</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201">
         <v>0</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -43228,22 +42625,19 @@
       <c r="BP201">
         <v>0</v>
       </c>
-      <c r="BQ201">
-        <v>0</v>
-      </c>
     </row>
-    <row r="202" spans="1:69">
+    <row r="202" spans="1:68">
       <c r="A202" s="1">
         <v>262</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C202">
         <v>0</v>
       </c>
       <c r="D202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -43437,22 +42831,19 @@
       <c r="BP202">
         <v>0</v>
       </c>
-      <c r="BQ202">
-        <v>0</v>
-      </c>
     </row>
-    <row r="203" spans="1:69">
+    <row r="203" spans="1:68">
       <c r="A203" s="1">
         <v>267</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C203">
         <v>0</v>
       </c>
       <c r="D203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -43646,11 +43037,8 @@
       <c r="BP203">
         <v>0</v>
       </c>
-      <c r="BQ203">
-        <v>0</v>
-      </c>
     </row>
-    <row r="204" spans="1:69">
+    <row r="204" spans="1:68">
       <c r="A204" s="1">
         <v>268</v>
       </c>
@@ -43855,11 +43243,8 @@
       <c r="BP204">
         <v>0</v>
       </c>
-      <c r="BQ204">
-        <v>0</v>
-      </c>
     </row>
-    <row r="205" spans="1:69">
+    <row r="205" spans="1:68">
       <c r="A205" s="1">
         <v>269</v>
       </c>
@@ -44064,22 +43449,19 @@
       <c r="BP205">
         <v>0</v>
       </c>
-      <c r="BQ205">
-        <v>0</v>
-      </c>
     </row>
-    <row r="206" spans="1:69">
+    <row r="206" spans="1:68">
       <c r="A206" s="1">
         <v>270</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C206">
         <v>0</v>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -44273,11 +43655,8 @@
       <c r="BP206">
         <v>0</v>
       </c>
-      <c r="BQ206">
-        <v>0</v>
-      </c>
     </row>
-    <row r="207" spans="1:69">
+    <row r="207" spans="1:68">
       <c r="A207" s="1">
         <v>2598</v>
       </c>
@@ -44285,10 +43664,10 @@
         <v>1</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E207">
         <v>1</v>
@@ -44482,11 +43861,8 @@
       <c r="BP207">
         <v>0</v>
       </c>
-      <c r="BQ207">
-        <v>0</v>
-      </c>
     </row>
-    <row r="208" spans="1:69">
+    <row r="208" spans="1:68">
       <c r="A208" s="1">
         <v>275</v>
       </c>
@@ -44686,24 +44062,21 @@
         <v>0</v>
       </c>
       <c r="BO208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP208">
-        <v>1</v>
-      </c>
-      <c r="BQ208">
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:69">
+    <row r="209" spans="1:68">
       <c r="A209" s="1">
         <v>281</v>
       </c>
       <c r="B209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -44900,22 +44273,19 @@
       <c r="BP209">
         <v>0</v>
       </c>
-      <c r="BQ209">
-        <v>0</v>
-      </c>
     </row>
-    <row r="210" spans="1:69">
+    <row r="210" spans="1:68">
       <c r="A210" s="1">
         <v>806</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C210">
         <v>0</v>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E210">
         <v>1</v>
@@ -45109,11 +44479,8 @@
       <c r="BP210">
         <v>0</v>
       </c>
-      <c r="BQ210">
-        <v>0</v>
-      </c>
     </row>
-    <row r="211" spans="1:69">
+    <row r="211" spans="1:68">
       <c r="A211" s="1">
         <v>295</v>
       </c>
@@ -45318,11 +44685,8 @@
       <c r="BP211">
         <v>0</v>
       </c>
-      <c r="BQ211">
-        <v>0</v>
-      </c>
     </row>
-    <row r="212" spans="1:69">
+    <row r="212" spans="1:68">
       <c r="A212" s="1">
         <v>1833</v>
       </c>
@@ -45330,10 +44694,10 @@
         <v>1</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E212">
         <v>1</v>
@@ -45525,13 +44889,10 @@
         <v>0</v>
       </c>
       <c r="BP212">
-        <v>0</v>
-      </c>
-      <c r="BQ212">
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:69">
+    <row r="213" spans="1:68">
       <c r="A213" s="1">
         <v>814</v>
       </c>
@@ -45539,10 +44900,10 @@
         <v>1</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -45736,11 +45097,8 @@
       <c r="BP213">
         <v>0</v>
       </c>
-      <c r="BQ213">
-        <v>0</v>
-      </c>
     </row>
-    <row r="214" spans="1:69">
+    <row r="214" spans="1:68">
       <c r="A214" s="1">
         <v>2706</v>
       </c>
@@ -45751,7 +45109,7 @@
         <v>0</v>
       </c>
       <c r="D214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E214">
         <v>1</v>
@@ -45945,11 +45303,8 @@
       <c r="BP214">
         <v>0</v>
       </c>
-      <c r="BQ214">
-        <v>0</v>
-      </c>
     </row>
-    <row r="215" spans="1:69">
+    <row r="215" spans="1:68">
       <c r="A215" s="1">
         <v>826</v>
       </c>
@@ -45957,10 +45312,10 @@
         <v>1</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -46154,11 +45509,8 @@
       <c r="BP215">
         <v>0</v>
       </c>
-      <c r="BQ215">
-        <v>0</v>
-      </c>
     </row>
-    <row r="216" spans="1:69">
+    <row r="216" spans="1:68">
       <c r="A216" s="1">
         <v>316</v>
       </c>
@@ -46166,10 +45518,10 @@
         <v>1</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E216">
         <v>1</v>
@@ -46363,11 +45715,8 @@
       <c r="BP216">
         <v>0</v>
       </c>
-      <c r="BQ216">
-        <v>0</v>
-      </c>
     </row>
-    <row r="217" spans="1:69">
+    <row r="217" spans="1:68">
       <c r="A217" s="1">
         <v>317</v>
       </c>
@@ -46378,7 +45727,7 @@
         <v>0</v>
       </c>
       <c r="D217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E217">
         <v>1</v>
@@ -46567,16 +45916,13 @@
         <v>0</v>
       </c>
       <c r="BO217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP217">
         <v>1</v>
       </c>
-      <c r="BQ217">
-        <v>1</v>
-      </c>
     </row>
-    <row r="218" spans="1:69">
+    <row r="218" spans="1:68">
       <c r="A218" s="1">
         <v>2365</v>
       </c>
@@ -46584,10 +45930,10 @@
         <v>1</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -46781,22 +46127,19 @@
       <c r="BP218">
         <v>0</v>
       </c>
-      <c r="BQ218">
-        <v>0</v>
-      </c>
     </row>
-    <row r="219" spans="1:69">
+    <row r="219" spans="1:68">
       <c r="A219" s="1">
         <v>327</v>
       </c>
       <c r="B219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C219">
         <v>0</v>
       </c>
       <c r="D219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E219">
         <v>1</v>
@@ -46990,11 +46333,8 @@
       <c r="BP219">
         <v>0</v>
       </c>
-      <c r="BQ219">
-        <v>0</v>
-      </c>
     </row>
-    <row r="220" spans="1:69">
+    <row r="220" spans="1:68">
       <c r="A220" s="1">
         <v>1367</v>
       </c>
@@ -47002,10 +46342,10 @@
         <v>1</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E220">
         <v>1</v>
@@ -47199,22 +46539,19 @@
       <c r="BP220">
         <v>0</v>
       </c>
-      <c r="BQ220">
-        <v>0</v>
-      </c>
     </row>
-    <row r="221" spans="1:69">
+    <row r="221" spans="1:68">
       <c r="A221" s="1">
         <v>349</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221">
         <v>0</v>
       </c>
       <c r="D221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -47408,11 +46745,8 @@
       <c r="BP221">
         <v>0</v>
       </c>
-      <c r="BQ221">
-        <v>0</v>
-      </c>
     </row>
-    <row r="222" spans="1:69">
+    <row r="222" spans="1:68">
       <c r="A222" s="1">
         <v>1891</v>
       </c>
@@ -47617,22 +46951,19 @@
       <c r="BP222">
         <v>0</v>
       </c>
-      <c r="BQ222">
-        <v>0</v>
-      </c>
     </row>
-    <row r="223" spans="1:69">
+    <row r="223" spans="1:68">
       <c r="A223" s="1">
         <v>359</v>
       </c>
       <c r="B223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E223">
         <v>1</v>
@@ -47826,11 +47157,8 @@
       <c r="BP223">
         <v>0</v>
       </c>
-      <c r="BQ223">
-        <v>0</v>
-      </c>
     </row>
-    <row r="224" spans="1:69">
+    <row r="224" spans="1:68">
       <c r="A224" s="1">
         <v>1398</v>
       </c>
@@ -47838,10 +47166,10 @@
         <v>1</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -48033,13 +47361,10 @@
         <v>0</v>
       </c>
       <c r="BP224">
-        <v>0</v>
-      </c>
-      <c r="BQ224">
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:69">
+    <row r="225" spans="1:68">
       <c r="A225" s="1">
         <v>888</v>
       </c>
@@ -48047,10 +47372,10 @@
         <v>1</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -48244,22 +47569,19 @@
       <c r="BP225">
         <v>0</v>
       </c>
-      <c r="BQ225">
-        <v>0</v>
-      </c>
     </row>
-    <row r="226" spans="1:69">
+    <row r="226" spans="1:68">
       <c r="A226" s="1">
         <v>1926</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C226">
         <v>0</v>
       </c>
       <c r="D226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -48453,22 +47775,19 @@
       <c r="BP226">
         <v>0</v>
       </c>
-      <c r="BQ226">
-        <v>0</v>
-      </c>
     </row>
-    <row r="227" spans="1:69">
+    <row r="227" spans="1:68">
       <c r="A227" s="1">
         <v>1929</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C227">
         <v>0</v>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -48627,13 +47946,13 @@
         <v>0</v>
       </c>
       <c r="BE227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF227">
         <v>1</v>
       </c>
       <c r="BG227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH227">
         <v>0</v>
@@ -48662,11 +47981,8 @@
       <c r="BP227">
         <v>0</v>
       </c>
-      <c r="BQ227">
-        <v>0</v>
-      </c>
     </row>
-    <row r="228" spans="1:69">
+    <row r="228" spans="1:68">
       <c r="A228" s="1">
         <v>919</v>
       </c>
@@ -48674,10 +47990,10 @@
         <v>1</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -48869,24 +48185,21 @@
         <v>0</v>
       </c>
       <c r="BP228">
-        <v>0</v>
-      </c>
-      <c r="BQ228">
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:69">
+    <row r="229" spans="1:68">
       <c r="A229" s="1">
         <v>1946</v>
       </c>
       <c r="B229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C229">
         <v>0</v>
       </c>
       <c r="D229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -49078,13 +48391,10 @@
         <v>0</v>
       </c>
       <c r="BP229">
-        <v>0</v>
-      </c>
-      <c r="BQ229">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:69">
+    <row r="230" spans="1:68">
       <c r="A230" s="1">
         <v>925</v>
       </c>
@@ -49092,10 +48402,10 @@
         <v>1</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -49289,22 +48599,19 @@
       <c r="BP230">
         <v>0</v>
       </c>
-      <c r="BQ230">
-        <v>0</v>
-      </c>
     </row>
-    <row r="231" spans="1:69">
+    <row r="231" spans="1:68">
       <c r="A231" s="1">
         <v>1442</v>
       </c>
       <c r="B231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C231">
         <v>0</v>
       </c>
       <c r="D231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -49498,11 +48805,8 @@
       <c r="BP231">
         <v>0</v>
       </c>
-      <c r="BQ231">
-        <v>0</v>
-      </c>
     </row>
-    <row r="232" spans="1:69">
+    <row r="232" spans="1:68">
       <c r="A232" s="1">
         <v>1954</v>
       </c>
@@ -49510,10 +48814,10 @@
         <v>1</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E232">
         <v>1</v>
@@ -49707,22 +49011,19 @@
       <c r="BP232">
         <v>0</v>
       </c>
-      <c r="BQ232">
-        <v>0</v>
-      </c>
     </row>
-    <row r="233" spans="1:69">
+    <row r="233" spans="1:68">
       <c r="A233" s="1">
         <v>937</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C233">
         <v>0</v>
       </c>
       <c r="D233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -49914,24 +49215,21 @@
         <v>0</v>
       </c>
       <c r="BP233">
-        <v>0</v>
-      </c>
-      <c r="BQ233">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:69">
+    <row r="234" spans="1:68">
       <c r="A234" s="1">
         <v>428</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C234">
         <v>0</v>
       </c>
       <c r="D234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -50125,22 +49423,19 @@
       <c r="BP234">
         <v>0</v>
       </c>
-      <c r="BQ234">
-        <v>0</v>
-      </c>
     </row>
-    <row r="235" spans="1:69">
+    <row r="235" spans="1:68">
       <c r="A235" s="1">
         <v>945</v>
       </c>
       <c r="B235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C235">
         <v>0</v>
       </c>
       <c r="D235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -50334,22 +49629,19 @@
       <c r="BP235">
         <v>0</v>
       </c>
-      <c r="BQ235">
-        <v>0</v>
-      </c>
     </row>
-    <row r="236" spans="1:69">
+    <row r="236" spans="1:68">
       <c r="A236" s="1">
         <v>951</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -50367,7 +49659,7 @@
         <v>0</v>
       </c>
       <c r="J236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K236">
         <v>1</v>
@@ -50543,22 +49835,19 @@
       <c r="BP236">
         <v>0</v>
       </c>
-      <c r="BQ236">
-        <v>0</v>
-      </c>
     </row>
-    <row r="237" spans="1:69">
+    <row r="237" spans="1:68">
       <c r="A237" s="1">
         <v>441</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237">
         <v>0</v>
       </c>
       <c r="D237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E237">
         <v>1</v>
@@ -50752,11 +50041,8 @@
       <c r="BP237">
         <v>0</v>
       </c>
-      <c r="BQ237">
-        <v>0</v>
-      </c>
     </row>
-    <row r="238" spans="1:69">
+    <row r="238" spans="1:68">
       <c r="A238" s="1">
         <v>2492</v>
       </c>
@@ -50961,22 +50247,19 @@
       <c r="BP238">
         <v>0</v>
       </c>
-      <c r="BQ238">
-        <v>0</v>
-      </c>
     </row>
-    <row r="239" spans="1:69">
+    <row r="239" spans="1:68">
       <c r="A239" s="1">
         <v>1469</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C239">
         <v>0</v>
       </c>
       <c r="D239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E239">
         <v>1</v>
@@ -51075,7 +50358,7 @@
         <v>1</v>
       </c>
       <c r="AK239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL239">
         <v>0</v>
@@ -51111,7 +50394,7 @@
         <v>1</v>
       </c>
       <c r="AW239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX239">
         <v>0</v>
@@ -51170,22 +50453,19 @@
       <c r="BP239">
         <v>0</v>
       </c>
-      <c r="BQ239">
-        <v>0</v>
-      </c>
     </row>
-    <row r="240" spans="1:69">
+    <row r="240" spans="1:68">
       <c r="A240" s="1">
         <v>1984</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C240">
         <v>0</v>
       </c>
       <c r="D240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -51379,22 +50659,19 @@
       <c r="BP240">
         <v>0</v>
       </c>
-      <c r="BQ240">
-        <v>0</v>
-      </c>
     </row>
-    <row r="241" spans="1:69">
+    <row r="241" spans="1:68">
       <c r="A241" s="1">
         <v>1991</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241">
         <v>0</v>
       </c>
       <c r="D241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E241">
         <v>1</v>
@@ -51559,10 +50836,10 @@
         <v>0</v>
       </c>
       <c r="BG241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI241">
         <v>0</v>
@@ -51588,11 +50865,8 @@
       <c r="BP241">
         <v>0</v>
       </c>
-      <c r="BQ241">
-        <v>0</v>
-      </c>
     </row>
-    <row r="242" spans="1:69">
+    <row r="242" spans="1:68">
       <c r="A242" s="1">
         <v>1480</v>
       </c>
@@ -51600,10 +50874,10 @@
         <v>1</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -51738,13 +51012,13 @@
         <v>0</v>
       </c>
       <c r="AW242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX242">
         <v>1</v>
       </c>
       <c r="AY242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ242">
         <v>0</v>
@@ -51797,22 +51071,19 @@
       <c r="BP242">
         <v>0</v>
       </c>
-      <c r="BQ242">
-        <v>0</v>
-      </c>
     </row>
-    <row r="243" spans="1:69">
+    <row r="243" spans="1:68">
       <c r="A243" s="1">
         <v>457</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C243">
         <v>0</v>
       </c>
       <c r="D243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -52004,24 +51275,21 @@
         <v>0</v>
       </c>
       <c r="BP243">
-        <v>0</v>
-      </c>
-      <c r="BQ243">
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:69">
+    <row r="244" spans="1:68">
       <c r="A244" s="1">
         <v>1483</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C244">
         <v>0</v>
       </c>
       <c r="D244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -52215,22 +51483,19 @@
       <c r="BP244">
         <v>0</v>
       </c>
-      <c r="BQ244">
-        <v>0</v>
-      </c>
     </row>
-    <row r="245" spans="1:69">
+    <row r="245" spans="1:68">
       <c r="A245" s="1">
         <v>470</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C245">
         <v>0</v>
       </c>
       <c r="D245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -52424,22 +51689,19 @@
       <c r="BP245">
         <v>0</v>
       </c>
-      <c r="BQ245">
-        <v>0</v>
-      </c>
     </row>
-    <row r="246" spans="1:69">
+    <row r="246" spans="1:68">
       <c r="A246" s="1">
         <v>494</v>
       </c>
       <c r="B246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C246">
         <v>0</v>
       </c>
       <c r="D246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -52633,22 +51895,19 @@
       <c r="BP246">
         <v>0</v>
       </c>
-      <c r="BQ246">
-        <v>0</v>
-      </c>
     </row>
-    <row r="247" spans="1:69">
+    <row r="247" spans="1:68">
       <c r="A247" s="1">
         <v>1007</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C247">
         <v>0</v>
       </c>
       <c r="D247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -52842,22 +52101,19 @@
       <c r="BP247">
         <v>0</v>
       </c>
-      <c r="BQ247">
-        <v>0</v>
-      </c>
     </row>
-    <row r="248" spans="1:69">
+    <row r="248" spans="1:68">
       <c r="A248" s="1">
         <v>2034</v>
       </c>
       <c r="B248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C248">
         <v>0</v>
       </c>
       <c r="D248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E248">
         <v>1</v>
@@ -53025,10 +52281,10 @@
         <v>0</v>
       </c>
       <c r="BH248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ248">
         <v>0</v>
@@ -53049,13 +52305,10 @@
         <v>0</v>
       </c>
       <c r="BP248">
-        <v>0</v>
-      </c>
-      <c r="BQ248">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:69">
+    <row r="249" spans="1:68">
       <c r="A249" s="1">
         <v>1528</v>
       </c>
@@ -53063,10 +52316,10 @@
         <v>1</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E249">
         <v>1</v>
@@ -53207,13 +52460,13 @@
         <v>0</v>
       </c>
       <c r="AY249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ249">
         <v>1</v>
       </c>
       <c r="BA249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB249">
         <v>0</v>
@@ -53260,11 +52513,8 @@
       <c r="BP249">
         <v>0</v>
       </c>
-      <c r="BQ249">
-        <v>0</v>
-      </c>
     </row>
-    <row r="250" spans="1:69">
+    <row r="250" spans="1:68">
       <c r="A250" s="1">
         <v>2043</v>
       </c>
@@ -53272,10 +52522,10 @@
         <v>1</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E250">
         <v>1</v>
@@ -53443,7 +52693,7 @@
         <v>0</v>
       </c>
       <c r="BH250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI250">
         <v>1</v>
@@ -53452,7 +52702,7 @@
         <v>1</v>
       </c>
       <c r="BK250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL250">
         <v>0</v>
@@ -53467,9 +52717,6 @@
         <v>0</v>
       </c>
       <c r="BP250">
-        <v>0</v>
-      </c>
-      <c r="BQ250">
         <v>0</v>
       </c>
     </row>
